--- a/Online shiping platform for FPTU_Team6_Document/SWP391-AppDevProject_Backlog Template.xlsx
+++ b/Online shiping platform for FPTU_Team6_Document/SWP391-AppDevProject_Backlog Template.xlsx
@@ -9,19 +9,22 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgMmUcXUIu3IcOiFEphXegm2SGiuA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miWKWUHz6ZpHPjvV9qU9ZsNazj6Mg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="64">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC</t>
   </si>
   <si>
     <t>PRODUCT BACKLOG</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
   <si>
     <t>Function Name</t>
@@ -389,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -404,6 +407,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -412,7 +418,10 @@
     <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -451,9 +460,12 @@
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="5" fillId="4" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -466,7 +478,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>1057275</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -700,59 +712,65 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0" outlineLevelCol="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="86.43"/>
-    <col customWidth="1" min="2" max="2" width="28.0" outlineLevel="1"/>
-    <col customWidth="1" min="3" max="3" width="11.57" outlineLevel="1"/>
-    <col customWidth="1" min="4" max="4" width="14.86"/>
-    <col customWidth="1" min="5" max="5" width="10.86"/>
-    <col customWidth="1" min="6" max="6" width="19.71"/>
-    <col customWidth="1" min="7" max="7" width="13.71"/>
-    <col customWidth="1" min="8" max="9" width="11.57"/>
-    <col customWidth="1" min="10" max="11" width="19.71"/>
-    <col customWidth="1" min="12" max="26" width="11.57"/>
+    <col customWidth="1" min="1" max="1" width="3.43"/>
+    <col customWidth="1" min="2" max="2" width="86.43"/>
+    <col customWidth="1" min="3" max="3" width="28.0" outlineLevel="1"/>
+    <col customWidth="1" min="4" max="4" width="11.57" outlineLevel="1"/>
+    <col customWidth="1" min="5" max="5" width="14.86"/>
+    <col customWidth="1" min="6" max="6" width="10.86"/>
+    <col customWidth="1" min="7" max="7" width="19.71"/>
+    <col customWidth="1" min="8" max="8" width="13.71"/>
+    <col customWidth="1" min="9" max="10" width="11.57"/>
+    <col customWidth="1" min="11" max="12" width="19.71"/>
+    <col customWidth="1" min="13" max="27" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5">
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="4"/>
+      <c r="D7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -761,616 +779,696 @@
       <c r="F8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="H8" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="I9" s="14" t="s">
+      <c r="G9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="15"/>
+      <c r="H9" s="13"/>
+      <c r="J9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="17"/>
     </row>
     <row r="10">
-      <c r="A10" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="J10" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E11" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="J11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="21"/>
+      <c r="J12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="21"/>
+      <c r="J13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9">
+        <v>6.0</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="21"/>
+      <c r="J14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="I10" s="21" t="s">
+      <c r="K14" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9">
+        <v>7.0</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="21"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="21"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9">
+        <v>9.0</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="E17" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="16" t="s">
+      <c r="G17" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="19" t="s">
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="9">
+        <v>11.0</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="21"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="9">
+        <v>12.0</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="9">
+        <v>13.0</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="21"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="9">
+        <v>14.0</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="21"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="9">
+        <v>15.0</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E23" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="9">
+        <v>16.0</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="21"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="9">
+        <v>17.0</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="21"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="9">
+        <v>18.0</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="21"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="9">
+        <v>19.0</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="19"/>
-      <c r="I11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="12" t="s">
+      <c r="E27" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="29" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="16" t="s">
+      <c r="G27" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="20" t="s">
+      <c r="H27" s="21"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="9">
+        <v>20.0</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="I12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="19"/>
-      <c r="I13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="19"/>
-      <c r="I14" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="19"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="19"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="19"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="19"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="19"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="19"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="19"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="19"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="19"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="19"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="19"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="19"/>
+      <c r="G28" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="21"/>
     </row>
     <row r="29">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="19"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="33"/>
     </row>
     <row r="30">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="19"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="33"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="19"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="33"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="19"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="33"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="30"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="19"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="33"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="30"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="19"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="33"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="30"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="19"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="33"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="30"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="19"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="33"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="30"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="19"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="33"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="30"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="19"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="33"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="19"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="33"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="19"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="33"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="20"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="19"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="33"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="20"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="19"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="33"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="20"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="19"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="33"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="20"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="19"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="33"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="20"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="19"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="33"/>
     </row>
     <row r="46" ht="15.75" customHeight="1"/>
     <row r="47" ht="15.75" customHeight="1"/>
@@ -2341,16 +2439,16 @@
     <row r="1012" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="J9:K9"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G9:G41">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H9:H41">
       <formula1>"Iteration 1,Iteration 2,Iteration 3,Final"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C9:C45">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D45">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D45">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E9:E45">
       <formula1>"Iteration 1,Iteration 2,Iteration 3"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Online shiping platform for FPTU_Team6_Document/SWP391-AppDevProject_Backlog Template.xlsx
+++ b/Online shiping platform for FPTU_Team6_Document/SWP391-AppDevProject_Backlog Template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="81">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC</t>
   </si>
@@ -175,7 +175,7 @@
     <t>Admin dashbroad</t>
   </si>
   <si>
-    <t>Select new reivew ticket + Approve function (data table + modal)</t>
+    <t>Select new review ticket + Approve function (data table + modal)</t>
   </si>
   <si>
     <t>review admin</t>
@@ -209,6 +209,57 @@
   </si>
   <si>
     <t>Delete review admin</t>
+  </si>
+  <si>
+    <t>Shop page (list of product by shop (seller), shop information (seller)</t>
+  </si>
+  <si>
+    <t>Shop Page</t>
+  </si>
+  <si>
+    <t>Iteration 3</t>
+  </si>
+  <si>
+    <t>Bill (buyer information, seller information, shipping information, product detail, payment, shipping status) API GHN</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Seller page</t>
+  </si>
+  <si>
+    <t>selling product, out stock product, delay for sell product (delete, update, list product) (seller page) + (datatable) + (SweetAlert)</t>
+  </si>
+  <si>
+    <t>Seller Page</t>
+  </si>
+  <si>
+    <t>List product wait for authentication (delete, update, list product) (seller) + (datatable) + (SweetAlert)</t>
+  </si>
+  <si>
+    <t>DashBroad (seller) 4 top + 4 chart</t>
+  </si>
+  <si>
+    <t>Purchase history ( List of bill + cancel order)</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Page thanks for order (confirm success)</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Payment + api paypal</t>
+  </si>
+  <si>
+    <t>Form review product (upload image)+ (authentication review)</t>
+  </si>
+  <si>
+    <t>Review</t>
   </si>
 </sst>
 </file>
@@ -218,7 +269,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -267,6 +318,12 @@
     </font>
     <font/>
     <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -392,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -460,11 +517,29 @@
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="8" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1160,7 +1235,7 @@
       <c r="A23" s="9">
         <v>15.0</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="31" t="s">
         <v>52</v>
       </c>
       <c r="C23" s="28" t="s">
@@ -1301,174 +1376,306 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="33"/>
+      <c r="A29" s="9">
+        <v>21.0</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="34"/>
     </row>
     <row r="30">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="33"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="33"/>
+      <c r="A30" s="9">
+        <v>22.0</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="34"/>
+    </row>
+    <row r="31" ht="15.75" hidden="1" customHeight="1">
+      <c r="A31" s="9">
+        <v>23.0</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="37"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="37"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="34"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="33"/>
+      <c r="A32" s="9">
+        <v>24.0</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="34"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="33"/>
+      <c r="A33" s="9">
+        <v>25.0</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="34"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="33"/>
+      <c r="A34" s="9">
+        <v>26.0</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="34"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="33"/>
+      <c r="A35" s="9">
+        <v>27.0</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="34"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="33"/>
+      <c r="A36" s="9">
+        <v>28.0</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="34"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="34"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="33"/>
+      <c r="A37" s="9">
+        <v>29.0</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37" s="34"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="34"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="33"/>
+      <c r="A38" s="9">
+        <v>30.0</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" s="34"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="33"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="34"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="33"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="34"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="33"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="34"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="33"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="34"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="33"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="34"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="33"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="34"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="33"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="34"/>
     </row>
     <row r="46" ht="15.75" customHeight="1"/>
     <row r="47" ht="15.75" customHeight="1"/>
